--- a/HFC.xlsx
+++ b/HFC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/HFC-2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/HFC2019I/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA23E1CF-97D8-7742-8527-EF41DFAC31A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F05762-C885-574B-BC1D-20DD39C0D3D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{92AD9A07-1A21-864F-8FD9-98EB9AF3C646}"/>
   </bookViews>
@@ -565,9 +565,6 @@
     <t xml:space="preserve"> el examen final en virtual sabana</t>
   </si>
   <si>
-    <t>hacer el examen parcial en virtual sabana</t>
-  </si>
-  <si>
     <t>Examen primer corte</t>
   </si>
   <si>
@@ -575,6 +572,9 @@
   </si>
   <si>
     <t>Examen tercer corte</t>
+  </si>
+  <si>
+    <t>el taller en virtual sabana</t>
   </si>
 </sst>
 </file>
@@ -822,62 +822,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -887,6 +842,51 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
@@ -1236,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126E7679-38D8-C743-97BF-FED867349053}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1394,7 +1394,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>38</v>
@@ -1577,7 +1577,7 @@
         <v>27</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>44</v>
@@ -1872,7 +1872,7 @@
         <v>46</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>115</v>
@@ -1881,7 +1881,7 @@
         <v>48</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>116</v>
@@ -1890,7 +1890,7 @@
         <v>119</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>117</v>
@@ -1904,393 +1904,393 @@
       <c r="A2" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="36" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="21" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="9"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33" t="e">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18" t="e">
         <f>AVERAGE(B3,C3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34" t="e">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19" t="e">
         <f>AVERAGE(E3,F3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20">
         <f>(H3*0.25+I3*0.15)/0.4</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33" t="e">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18" t="e">
         <f t="shared" ref="D4:D18" si="0">AVERAGE(B4,C4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34" t="e">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19" t="e">
         <f t="shared" ref="G4:G18" si="1">AVERAGE(E4,F4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20">
         <f t="shared" ref="J4:J18" si="2">(H4*0.25+I4*0.15)/0.4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="e">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34" t="e">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35">
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33" t="e">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34" t="e">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35">
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33" t="e">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34" t="e">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35">
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33" t="e">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34" t="e">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35">
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33" t="e">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34" t="e">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35">
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33" t="e">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34" t="e">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35">
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33" t="e">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34" t="e">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35">
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33" t="e">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34" t="e">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35">
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33" t="e">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34" t="e">
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35">
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33" t="e">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34" t="e">
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35">
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33" t="e">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34" t="e">
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35">
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33" t="e">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34" t="e">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33" t="e">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34" t="e">
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33" t="e">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34" t="e">
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2347,705 +2347,766 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="31" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="29" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="26" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="22" t="s">
+      <c r="F7" s="31"/>
+      <c r="G7" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="N7" s="24" t="s">
+      <c r="N7" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="22" t="s">
+      <c r="O7" s="29"/>
+      <c r="P7" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="Q7" s="22" t="s">
+      <c r="Q7" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="R7" s="22" t="s">
+      <c r="R7" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="18" t="s">
+      <c r="F8" s="34"/>
+      <c r="G8" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="15" t="s">
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="R8" s="14"/>
+      <c r="R8" s="13"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="34"/>
+      <c r="G9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="15" t="s">
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="R9" s="14"/>
+      <c r="R9" s="13"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="34"/>
+      <c r="G10" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="15" t="s">
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="R10" s="14"/>
+      <c r="R10" s="13"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="34"/>
+      <c r="G11" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="15" t="s">
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="R11" s="14"/>
+      <c r="R11" s="13"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="18" t="s">
+      <c r="F12" s="34"/>
+      <c r="G12" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="15" t="s">
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="R12" s="14"/>
+      <c r="R12" s="13"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="18" t="s">
+      <c r="F13" s="34"/>
+      <c r="G13" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="15" t="s">
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="R13" s="14"/>
+      <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="18" t="s">
+      <c r="F14" s="34"/>
+      <c r="G14" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="15" t="s">
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="R14" s="14"/>
+      <c r="R14" s="13"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="18" t="s">
+      <c r="F15" s="34"/>
+      <c r="G15" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="15" t="s">
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="R15" s="14"/>
+      <c r="R15" s="13"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="18" t="s">
+      <c r="F16" s="34"/>
+      <c r="G16" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="15" t="s">
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="R16" s="14"/>
+      <c r="R16" s="13"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="18" t="s">
+      <c r="F17" s="34"/>
+      <c r="G17" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="15" t="s">
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="R17" s="14"/>
+      <c r="R17" s="13"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="18" t="s">
+      <c r="F18" s="34"/>
+      <c r="G18" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="15" t="s">
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="R18" s="14"/>
+      <c r="R18" s="13"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="18" t="s">
+      <c r="F19" s="34"/>
+      <c r="G19" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="15" t="s">
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="R19" s="14"/>
+      <c r="R19" s="13"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20" t="s">
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="18" t="s">
+      <c r="F20" s="34"/>
+      <c r="G20" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="15" t="s">
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="R20" s="14"/>
+      <c r="R20" s="13"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20" t="s">
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="18" t="s">
+      <c r="F21" s="34"/>
+      <c r="G21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="15" t="s">
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="R21" s="14"/>
+      <c r="R21" s="13"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20" t="s">
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="18" t="s">
+      <c r="F22" s="34"/>
+      <c r="G22" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="15" t="s">
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="R22" s="14"/>
+      <c r="R22" s="13"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20" t="s">
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="18" t="s">
+      <c r="F23" s="34"/>
+      <c r="G23" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="15" t="s">
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="R23" s="14"/>
+      <c r="R23" s="13"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:R6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:R5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:R1"/>
     <mergeCell ref="A2:C2"/>
@@ -3053,67 +3114,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:R3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:R5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:R6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="N23:O23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HFC.xlsx
+++ b/HFC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/HFC2019I/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F05762-C885-574B-BC1D-20DD39C0D3D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E06F07-A174-9B47-8E7B-2D36A85C23C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{92AD9A07-1A21-864F-8FD9-98EB9AF3C646}"/>
   </bookViews>
@@ -1236,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126E7679-38D8-C743-97BF-FED867349053}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/HFC.xlsx
+++ b/HFC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/HFC2019I/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E06F07-A174-9B47-8E7B-2D36A85C23C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B1CE98-C99F-7842-A52C-37B29F9D97CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{92AD9A07-1A21-864F-8FD9-98EB9AF3C646}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="131">
   <si>
     <t>(Por definir)</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Física clásica</t>
-  </si>
-  <si>
-    <t>Físicas no-clásicas: relativista y cuántica</t>
   </si>
   <si>
     <t>Repaso</t>
@@ -575,6 +572,15 @@
   </si>
   <si>
     <t>el taller en virtual sabana</t>
+  </si>
+  <si>
+    <t>Físicas no-clásicas: relativista</t>
+  </si>
+  <si>
+    <t>Físicas no-clasicas: cuántica</t>
+  </si>
+  <si>
+    <t>Físicas no-clasicas: cuántica y Repaso</t>
   </si>
 </sst>
 </file>
@@ -1236,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126E7679-38D8-C743-97BF-FED867349053}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1258,13 +1264,13 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>4</v>
@@ -1276,7 +1282,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>5</v>
@@ -1305,7 +1311,7 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1335,7 +1341,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1365,7 +1371,7 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1391,13 +1397,10 @@
         <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1" t="s">
         <v>128</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1420,13 +1423,13 @@
         <v xml:space="preserve"> Viernes 22 Febrero</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
+        <v>130</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1449,14 +1452,14 @@
         <v xml:space="preserve"> Viernes 01 Marzo</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1481,14 +1484,14 @@
         <v xml:space="preserve"> Viernes 08 Marzo</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1511,14 +1514,14 @@
         <v xml:space="preserve"> Viernes 15 Marzo</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1541,14 +1544,14 @@
         <v xml:space="preserve"> Viernes 22 Marzo</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="11" t="s">
-        <v>43</v>
+      <c r="H10" t="s">
+        <v>40</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1571,16 +1574,16 @@
         <v xml:space="preserve"> Viernes 29 Marzo</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1603,14 +1606,14 @@
         <v xml:space="preserve"> Viernes 05 Abril</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1633,14 +1636,14 @@
         <v xml:space="preserve"> Viernes 12 Abril</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>0</v>
+      <c r="H13" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1663,7 +1666,7 @@
         <v xml:space="preserve"> Viernes 19 Abril</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="1"/>
@@ -1689,10 +1692,10 @@
         <v xml:space="preserve"> Viernes 26 Abril</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="1" t="s">
@@ -1719,10 +1722,10 @@
         <v xml:space="preserve"> Viernes 03 Mayo</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="1" t="s">
@@ -1749,10 +1752,10 @@
         <v xml:space="preserve"> Viernes 10 Mayo</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="1" t="s">
@@ -1779,10 +1782,10 @@
         <v xml:space="preserve"> Viernes 17 Mayo</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="1" t="s">
@@ -1809,16 +1812,16 @@
         <v xml:space="preserve"> Viernes 24 Mayo</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1869,67 +1872,67 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" s="9"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1952,7 +1955,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -1975,7 +1978,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -1998,7 +2001,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -2021,7 +2024,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2044,7 +2047,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -2067,7 +2070,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2090,7 +2093,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -2113,7 +2116,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -2136,7 +2139,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -2159,7 +2162,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -2182,7 +2185,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -2205,7 +2208,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -2228,7 +2231,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -2251,7 +2254,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -2274,7 +2277,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -2348,12 +2351,12 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
       <c r="D1" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
@@ -2372,12 +2375,12 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
@@ -2396,16 +2399,16 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
       <c r="F3" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -2422,16 +2425,16 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
       <c r="F4" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
@@ -2448,16 +2451,16 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
       <c r="F5" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
@@ -2474,16 +2477,16 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
@@ -2500,67 +2503,67 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="29"/>
       <c r="E7" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="31"/>
       <c r="G7" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="N7" s="27" t="s">
         <v>100</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="N7" s="27" t="s">
-        <v>101</v>
       </c>
       <c r="O7" s="29"/>
       <c r="P7" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q7" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R7" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="34"/>
       <c r="E8" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -2572,25 +2575,25 @@
       <c r="O8" s="36"/>
       <c r="P8" s="13"/>
       <c r="Q8" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R8" s="13"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="34"/>
       <c r="E9" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -2602,25 +2605,25 @@
       <c r="O9" s="36"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R9" s="13"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="34"/>
       <c r="E10" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -2632,25 +2635,25 @@
       <c r="O10" s="36"/>
       <c r="P10" s="13"/>
       <c r="Q10" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R10" s="13"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="34"/>
       <c r="E11" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -2662,25 +2665,25 @@
       <c r="O11" s="36"/>
       <c r="P11" s="13"/>
       <c r="Q11" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R11" s="13"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="34"/>
       <c r="E12" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
@@ -2692,25 +2695,25 @@
       <c r="O12" s="36"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R12" s="13"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="34"/>
       <c r="E13" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -2722,25 +2725,25 @@
       <c r="O13" s="36"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34"/>
       <c r="E14" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -2752,25 +2755,25 @@
       <c r="O14" s="36"/>
       <c r="P14" s="13"/>
       <c r="Q14" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R14" s="13"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="34"/>
       <c r="E15" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -2782,25 +2785,25 @@
       <c r="O15" s="36"/>
       <c r="P15" s="13"/>
       <c r="Q15" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R15" s="13"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="34"/>
       <c r="E16" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -2812,25 +2815,25 @@
       <c r="O16" s="36"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R16" s="13"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="34"/>
       <c r="E17" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -2842,25 +2845,25 @@
       <c r="O17" s="36"/>
       <c r="P17" s="13"/>
       <c r="Q17" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R17" s="13"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="34"/>
       <c r="E18" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -2872,25 +2875,25 @@
       <c r="O18" s="36"/>
       <c r="P18" s="13"/>
       <c r="Q18" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R18" s="13"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="34"/>
       <c r="E19" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -2902,25 +2905,25 @@
       <c r="O19" s="36"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R19" s="13"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="34"/>
       <c r="E20" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
@@ -2932,25 +2935,25 @@
       <c r="O20" s="36"/>
       <c r="P20" s="13"/>
       <c r="Q20" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R20" s="13"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="34"/>
       <c r="E21" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
@@ -2962,25 +2965,25 @@
       <c r="O21" s="36"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R21" s="13"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="34"/>
       <c r="E22" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -2992,25 +2995,25 @@
       <c r="O22" s="36"/>
       <c r="P22" s="13"/>
       <c r="Q22" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R22" s="13"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="34"/>
       <c r="E23" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
@@ -3022,13 +3025,13 @@
       <c r="O23" s="36"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R23" s="13"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>

--- a/HFC.xlsx
+++ b/HFC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/HFC2019I/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B1CE98-C99F-7842-A52C-37B29F9D97CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3E1358-0165-3549-A7C4-3A9B7E8FA1F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{92AD9A07-1A21-864F-8FD9-98EB9AF3C646}"/>
   </bookViews>
@@ -29,6 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -849,13 +850,22 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -875,23 +885,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1242,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126E7679-38D8-C743-97BF-FED867349053}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1544,14 +1545,14 @@
         <v xml:space="preserve"> Viernes 22 Marzo</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1574,16 +1575,14 @@
         <v xml:space="preserve"> Viernes 29 Marzo</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" t="s">
+        <v>40</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1606,14 +1605,16 @@
         <v xml:space="preserve"> Viernes 05 Abril</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="H12" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1636,14 +1637,14 @@
         <v xml:space="preserve"> Viernes 12 Abril</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1692,14 +1693,14 @@
         <v xml:space="preserve"> Viernes 26 Abril</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1752,10 +1753,10 @@
         <v xml:space="preserve"> Viernes 10 Mayo</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="1" t="s">
@@ -2350,170 +2351,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30" t="s">
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="31"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="16" t="s">
         <v>103</v>
       </c>
@@ -2535,10 +2536,10 @@
       <c r="M7" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="N7" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="O7" s="29"/>
+      <c r="O7" s="32"/>
       <c r="P7" s="16" t="s">
         <v>99</v>
       </c>
@@ -2553,15 +2554,15 @@
       <c r="A8" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="32" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="34"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="15" t="s">
         <v>50</v>
       </c>
@@ -2571,8 +2572,8 @@
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="36"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="28"/>
       <c r="P8" s="13"/>
       <c r="Q8" s="14" t="s">
         <v>49</v>
@@ -2583,15 +2584,15 @@
       <c r="A9" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="32" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="34"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="15" t="s">
         <v>50</v>
       </c>
@@ -2601,8 +2602,8 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="36"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="28"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="14" t="s">
         <v>49</v>
@@ -2613,15 +2614,15 @@
       <c r="A10" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="32" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="34"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="15" t="s">
         <v>50</v>
       </c>
@@ -2631,8 +2632,8 @@
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="36"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="28"/>
       <c r="P10" s="13"/>
       <c r="Q10" s="14" t="s">
         <v>49</v>
@@ -2643,15 +2644,15 @@
       <c r="A11" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="32" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="34"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="15" t="s">
         <v>50</v>
       </c>
@@ -2661,8 +2662,8 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="36"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="28"/>
       <c r="P11" s="13"/>
       <c r="Q11" s="14" t="s">
         <v>49</v>
@@ -2673,15 +2674,15 @@
       <c r="A12" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="32" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="34"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="15" t="s">
         <v>50</v>
       </c>
@@ -2691,8 +2692,8 @@
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="36"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="28"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="14" t="s">
         <v>49</v>
@@ -2703,15 +2704,15 @@
       <c r="A13" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="32" t="s">
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="34"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="15" t="s">
         <v>50</v>
       </c>
@@ -2721,8 +2722,8 @@
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="36"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="28"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="14" t="s">
         <v>49</v>
@@ -2733,15 +2734,15 @@
       <c r="A14" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="32" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="34"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="15" t="s">
         <v>50</v>
       </c>
@@ -2751,8 +2752,8 @@
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="36"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="28"/>
       <c r="P14" s="13"/>
       <c r="Q14" s="14" t="s">
         <v>49</v>
@@ -2763,15 +2764,15 @@
       <c r="A15" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="32" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="34"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="15" t="s">
         <v>50</v>
       </c>
@@ -2781,8 +2782,8 @@
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="36"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="28"/>
       <c r="P15" s="13"/>
       <c r="Q15" s="14" t="s">
         <v>49</v>
@@ -2793,15 +2794,15 @@
       <c r="A16" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="32" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="34"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="15" t="s">
         <v>50</v>
       </c>
@@ -2811,8 +2812,8 @@
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="36"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="28"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="14" t="s">
         <v>49</v>
@@ -2823,15 +2824,15 @@
       <c r="A17" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="32" t="s">
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="34"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="15" t="s">
         <v>50</v>
       </c>
@@ -2841,8 +2842,8 @@
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="36"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="28"/>
       <c r="P17" s="13"/>
       <c r="Q17" s="14" t="s">
         <v>49</v>
@@ -2853,15 +2854,15 @@
       <c r="A18" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="32" t="s">
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="34"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="15" t="s">
         <v>50</v>
       </c>
@@ -2871,8 +2872,8 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="36"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="28"/>
       <c r="P18" s="13"/>
       <c r="Q18" s="14" t="s">
         <v>49</v>
@@ -2883,15 +2884,15 @@
       <c r="A19" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="32" t="s">
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="34"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="15" t="s">
         <v>62</v>
       </c>
@@ -2901,8 +2902,8 @@
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="36"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="28"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="14" t="s">
         <v>49</v>
@@ -2913,15 +2914,15 @@
       <c r="A20" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="32" t="s">
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="34"/>
+      <c r="F20" s="26"/>
       <c r="G20" s="15" t="s">
         <v>50</v>
       </c>
@@ -2931,8 +2932,8 @@
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="36"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="28"/>
       <c r="P20" s="13"/>
       <c r="Q20" s="14" t="s">
         <v>49</v>
@@ -2943,15 +2944,15 @@
       <c r="A21" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="32" t="s">
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="34"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="15" t="s">
         <v>50</v>
       </c>
@@ -2961,8 +2962,8 @@
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="36"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="28"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="14" t="s">
         <v>49</v>
@@ -2973,15 +2974,15 @@
       <c r="A22" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="32" t="s">
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="34"/>
+      <c r="F22" s="26"/>
       <c r="G22" s="15" t="s">
         <v>50</v>
       </c>
@@ -2991,8 +2992,8 @@
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="36"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="28"/>
       <c r="P22" s="13"/>
       <c r="Q22" s="14" t="s">
         <v>49</v>
@@ -3003,15 +3004,15 @@
       <c r="A23" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="32" t="s">
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="34"/>
+      <c r="F23" s="26"/>
       <c r="G23" s="15" t="s">
         <v>50</v>
       </c>
@@ -3021,8 +3022,8 @@
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="36"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="28"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="14" t="s">
         <v>49</v>
@@ -3030,25 +3031,86 @@
       <c r="R23" s="13"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:R1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:R2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:R3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:R5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:R6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="N21:O21"/>
     <mergeCell ref="A24:N24"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="E22:F22"/>
@@ -3056,67 +3118,6 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:R6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:R5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:R1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:R2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
